--- a/medicine/Sexualité et sexologie/Stigmatophilie/Stigmatophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Stigmatophilie/Stigmatophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La stigmatophilie est une paraphilie dans laquelle le sujet éprouve une excitation sexuelle pour les modifications du corps de son partenaire, telles les piercing et les tatouages[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La stigmatophilie est une paraphilie dans laquelle le sujet éprouve une excitation sexuelle pour les modifications du corps de son partenaire, telles les piercing et les tatouages.
 Quand les modifications sont extrêmes, la stigmatophilie peut prendre le nom d'apotemnophilie, quand l'excitation porte sur des corps mutilés par des piercings.
 </t>
         </is>
